--- a/docs/bible.xlsx
+++ b/docs/bible.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JURY-03\Desktop\dev\jdr2d\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-02\Documents\programme\PortableGit\jdr2d\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A5F8DD-8B9F-4A25-AB42-CBC0C342D68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C966D1A3-FD06-49EC-A39D-1AEBBAABD8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{1DBC37D4-618A-4A57-8FC5-54B2FEF02B49}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DBC37D4-618A-4A57-8FC5-54B2FEF02B49}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
   <si>
     <t>Races</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>Force+,</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -415,9 +418,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449CDFBD-5B88-4803-B87C-0C090B123BB5}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,6 +849,9 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -864,77 +871,144 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="str">
+        <f>B18&amp;" "&amp;C18&amp;" "&amp;D18&amp;" "&amp;E18&amp;"hhhhhhhhhh"</f>
+        <v>Chevalier Chevalier Chevalier Chevalierhhhhhhhhhh</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>28</v>
       </c>
